--- a/release/excelfiles/borrowerslip.xlsx
+++ b/release/excelfiles/borrowerslip.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Comp Eng Docs\CPE 50\SUMEBorrower\sume-borrower-app\release\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Students</t>
   </si>
@@ -112,20 +122,17 @@
     </r>
   </si>
   <si>
-    <t>Instructor Signature</t>
-  </si>
-  <si>
-    <t>haha</t>
+    <t>Instructor's Signature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,9 +199,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,132 +291,163 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
         <b/>
-        <i/>
+        <i val="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i/>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="none">
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -711,96 +747,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="1.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="36"/>
-    </row>
-    <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="36"/>
-    </row>
-    <row r="4" ht="12" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="4" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" ht="12" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="4" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" ht="12" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="4" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" ht="12" customHeight="1">
+      <c r="J6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -812,213 +857,227 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="K8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" ht="12" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" ht="12" customHeight="1">
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="12" customHeight="1">
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="12" customHeight="1">
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="12" customHeight="1">
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="12" customHeight="1">
+      <c r="K19" s="3"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="12" customHeight="1">
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="12" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="12" customHeight="1">
+      <c r="J22" s="7"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1030,108 +1089,114 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="12" customHeight="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" ht="12" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" ht="12" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="6" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" ht="12" customHeight="1"/>
-    <row r="28" spans="1:11" ht="12" customHeight="1"/>
-    <row r="29" spans="1:11" ht="12" customHeight="1"/>
-    <row r="30" spans="1:11" ht="12" customHeight="1"/>
-    <row r="31" spans="1:11" ht="12" customHeight="1"/>
-    <row r="32" spans="1:11" ht="12" customHeight="1"/>
-    <row r="33" spans="1:11" ht="12" customHeight="1"/>
-    <row r="34" spans="1:11" ht="12" customHeight="1"/>
-    <row r="35" spans="1:11" ht="9.95" customHeight="1"/>
-    <row r="36" spans="1:11" ht="9.95" customHeight="1"/>
-    <row r="37" spans="1:11" ht="9.95" customHeight="1"/>
-    <row r="38" spans="1:11" ht="9.95" customHeight="1"/>
-    <row r="39" spans="1:11" ht="9.95" customHeight="1"/>
-    <row r="40" spans="1:11" ht="9.95" customHeight="1"/>
-    <row r="41" spans="1:11" ht="9.95" customHeight="1"/>
-    <row r="42" spans="1:11" ht="9.95" customHeight="1"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:F26"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A25:G26"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
   </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup paperSize="6" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/release/excelfiles/borrowerslip.xlsx
+++ b/release/excelfiles/borrowerslip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Students</t>
   </si>
@@ -115,31 +115,25 @@
     </r>
   </si>
   <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>BASFAW</t>
-  </si>
-  <si>
-    <t>SSAFAW</t>
-  </si>
-  <si>
-    <t>SAFA</t>
-  </si>
-  <si>
-    <t>2017-10-04 10:40:44 PM</t>
-  </si>
-  <si>
-    <t>MARK TY</t>
-  </si>
-  <si>
-    <t>EQUIPMENT420</t>
-  </si>
-  <si>
-    <t>TURBINE1</t>
-  </si>
-  <si>
-    <t>✓</t>
+    <t>ASCA</t>
+  </si>
+  <si>
+    <t>ASDAS</t>
+  </si>
+  <si>
+    <t>QWEQW</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>2017-10-06 03:11:02 PM</t>
+  </si>
+  <si>
+    <t>ASDASD</t>
+  </si>
+  <si>
+    <t>EQUIP1</t>
   </si>
 </sst>
 </file>
@@ -906,11 +900,9 @@
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17">
-        <v>4</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" ht="12" customHeight="1">
@@ -919,15 +911,11 @@
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="17">
-        <v>1</v>
-      </c>
+      <c r="J10" s="17"/>
       <c r="K10" s="20"/>
       <c r="L10" s="6"/>
     </row>

--- a/release/excelfiles/borrowerslip.xlsx
+++ b/release/excelfiles/borrowerslip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Students</t>
   </si>
@@ -115,25 +115,40 @@
     </r>
   </si>
   <si>
-    <t>ASCA</t>
-  </si>
-  <si>
-    <t>ASDAS</t>
-  </si>
-  <si>
-    <t>QWEQW</t>
-  </si>
-  <si>
-    <t>ASD</t>
-  </si>
-  <si>
-    <t>2017-10-06 03:11:02 PM</t>
-  </si>
-  <si>
-    <t>ASDASD</t>
-  </si>
-  <si>
-    <t>EQUIP1</t>
+    <t>CPE 50</t>
+  </si>
+  <si>
+    <t>GROUP 1</t>
+  </si>
+  <si>
+    <t>ENGR. DIPUTADO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2017-10-18 03:09:34 PM</t>
+  </si>
+  <si>
+    <t>ANGELO</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>PHILIP</t>
+  </si>
+  <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>EQUIPMENT 1</t>
+  </si>
+  <si>
+    <t>EQUIPMENT 2</t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
 </sst>
 </file>
@@ -894,33 +909,43 @@
       <c r="D9" s="17"/>
       <c r="E9" s="6"/>
       <c r="F9" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17">
-        <v>1</v>
-      </c>
-      <c r="K9" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="6"/>
     </row>
     <row r="10" ht="12" customHeight="1">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
       <c r="K10" s="20"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
@@ -934,7 +959,9 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
